--- a/prep_data/2025_passing_defense.xlsx
+++ b/prep_data/2025_passing_defense.xlsx
@@ -512,43 +512,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>362</v>
+        <v>409</v>
       </c>
       <c r="D2" t="n">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="E2" t="n">
-        <v>63.3</v>
+        <v>63.1</v>
       </c>
       <c r="F2" t="n">
-        <v>2444</v>
+        <v>2816</v>
       </c>
       <c r="G2" t="n">
-        <v>6.75</v>
+        <v>6.89</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
         <v>10</v>
       </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K2" t="n">
-        <v>297</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>89.8</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>2147</v>
+        <v>2461</v>
       </c>
       <c r="N2" t="n">
-        <v>165.2</v>
+        <v>164.1</v>
       </c>
     </row>
     <row r="3">
@@ -558,365 +558,365 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>415</v>
+      </c>
+      <c r="D3" t="n">
+        <v>253</v>
+      </c>
+      <c r="E3" t="n">
+        <v>61</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2724</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
         <v>13</v>
       </c>
-      <c r="C3" t="n">
-        <v>362</v>
-      </c>
-      <c r="D3" t="n">
-        <v>219</v>
-      </c>
-      <c r="E3" t="n">
-        <v>60.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2412</v>
-      </c>
-      <c r="G3" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="H3" t="n">
-        <v>16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="K3" t="n">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="L3" t="n">
-        <v>83.5</v>
+        <v>80.8</v>
       </c>
       <c r="M3" t="n">
-        <v>2234</v>
+        <v>2507</v>
       </c>
       <c r="N3" t="n">
-        <v>171.8</v>
+        <v>167.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D4" t="n">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="E4" t="n">
-        <v>57.1</v>
+        <v>62.7</v>
       </c>
       <c r="F4" t="n">
-        <v>2514</v>
+        <v>2790</v>
       </c>
       <c r="G4" t="n">
-        <v>6.16</v>
+        <v>6.86</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="L4" t="n">
-        <v>69.8</v>
+        <v>88.2</v>
       </c>
       <c r="M4" t="n">
-        <v>2236</v>
+        <v>2538</v>
       </c>
       <c r="N4" t="n">
-        <v>172</v>
+        <v>169.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>356</v>
+        <v>471</v>
       </c>
       <c r="D5" t="n">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="E5" t="n">
-        <v>63.2</v>
+        <v>58.6</v>
       </c>
       <c r="F5" t="n">
-        <v>2463</v>
+        <v>2964</v>
       </c>
       <c r="G5" t="n">
-        <v>6.92</v>
+        <v>6.29</v>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K5" t="n">
-        <v>223</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>90.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>2240</v>
+        <v>2641</v>
       </c>
       <c r="N5" t="n">
-        <v>172.3</v>
+        <v>176.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>389</v>
+        <v>419</v>
       </c>
       <c r="D6" t="n">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="E6" t="n">
-        <v>60.4</v>
+        <v>65.2</v>
       </c>
       <c r="F6" t="n">
-        <v>2463</v>
+        <v>2905</v>
       </c>
       <c r="G6" t="n">
-        <v>6.33</v>
+        <v>6.93</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K6" t="n">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="L6" t="n">
-        <v>73</v>
+        <v>93.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2251</v>
+        <v>2659</v>
       </c>
       <c r="N6" t="n">
-        <v>173.2</v>
+        <v>177.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>360</v>
+        <v>454</v>
       </c>
       <c r="D7" t="n">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
-        <v>65.59999999999999</v>
+        <v>61</v>
       </c>
       <c r="F7" t="n">
-        <v>2554</v>
+        <v>2929</v>
       </c>
       <c r="G7" t="n">
-        <v>7.09</v>
+        <v>6.45</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="K7" t="n">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="L7" t="n">
-        <v>96.5</v>
+        <v>74.5</v>
       </c>
       <c r="M7" t="n">
-        <v>2374</v>
+        <v>2690</v>
       </c>
       <c r="N7" t="n">
-        <v>182.6</v>
+        <v>179.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n">
+        <v>487</v>
+      </c>
+      <c r="D8" t="n">
+        <v>272</v>
+      </c>
+      <c r="E8" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3083</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="H8" t="n">
         <v>13</v>
       </c>
-      <c r="C8" t="n">
-        <v>430</v>
-      </c>
-      <c r="D8" t="n">
-        <v>281</v>
-      </c>
-      <c r="E8" t="n">
-        <v>65.3</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2618</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6.09</v>
-      </c>
-      <c r="H8" t="n">
-        <v>17</v>
-      </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K8" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L8" t="n">
-        <v>88.3</v>
+        <v>74.5</v>
       </c>
       <c r="M8" t="n">
-        <v>2415</v>
+        <v>2884</v>
       </c>
       <c r="N8" t="n">
-        <v>185.8</v>
+        <v>192.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>379</v>
+        <v>456</v>
       </c>
       <c r="D9" t="n">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
-        <v>63.1</v>
+        <v>62.7</v>
       </c>
       <c r="F9" t="n">
-        <v>2628</v>
+        <v>3245</v>
       </c>
       <c r="G9" t="n">
-        <v>6.93</v>
+        <v>7.12</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="L9" t="n">
-        <v>101.1</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="M9" t="n">
-        <v>2472</v>
+        <v>2927</v>
       </c>
       <c r="N9" t="n">
-        <v>190.2</v>
+        <v>195.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>391</v>
+        <v>498</v>
       </c>
       <c r="D10" t="n">
-        <v>251</v>
+        <v>323</v>
       </c>
       <c r="E10" t="n">
-        <v>64.2</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>2765</v>
+        <v>3170</v>
       </c>
       <c r="G10" t="n">
-        <v>7.07</v>
+        <v>6.37</v>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K10" t="n">
-        <v>276</v>
+        <v>203</v>
       </c>
       <c r="L10" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="M10" t="n">
-        <v>2489</v>
+        <v>2967</v>
       </c>
       <c r="N10" t="n">
-        <v>191.5</v>
+        <v>197.8</v>
       </c>
     </row>
     <row r="11">
@@ -926,298 +926,298 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>451</v>
+        <v>527</v>
       </c>
       <c r="D11" t="n">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="E11" t="n">
-        <v>58.3</v>
+        <v>58.8</v>
       </c>
       <c r="F11" t="n">
-        <v>2849</v>
+        <v>3404</v>
       </c>
       <c r="G11" t="n">
-        <v>6.32</v>
+        <v>6.46</v>
       </c>
       <c r="H11" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K11" t="n">
-        <v>340</v>
+        <v>383</v>
       </c>
       <c r="L11" t="n">
-        <v>80.09999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="M11" t="n">
-        <v>2509</v>
+        <v>3021</v>
       </c>
       <c r="N11" t="n">
-        <v>193</v>
+        <v>201.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D12" t="n">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E12" t="n">
-        <v>62.4</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>2861</v>
+        <v>3220</v>
       </c>
       <c r="G12" t="n">
-        <v>6.05</v>
+        <v>6.88</v>
       </c>
       <c r="H12" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>299</v>
+        <v>190</v>
       </c>
       <c r="L12" t="n">
-        <v>77.3</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>2562</v>
+        <v>3030</v>
       </c>
       <c r="N12" t="n">
-        <v>197.1</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="D13" t="n">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="E13" t="n">
-        <v>69.90000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>2823</v>
+        <v>3200</v>
       </c>
       <c r="G13" t="n">
-        <v>7.26</v>
+        <v>7.19</v>
       </c>
       <c r="H13" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>31</v>
       </c>
       <c r="K13" t="n">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="L13" t="n">
-        <v>100.2</v>
+        <v>94</v>
       </c>
       <c r="M13" t="n">
-        <v>2634</v>
+        <v>3068</v>
       </c>
       <c r="N13" t="n">
-        <v>202.6</v>
+        <v>204.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>388</v>
+        <v>461</v>
       </c>
       <c r="D14" t="n">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="E14" t="n">
-        <v>67.8</v>
+        <v>63.3</v>
       </c>
       <c r="F14" t="n">
-        <v>2762</v>
+        <v>3304</v>
       </c>
       <c r="G14" t="n">
-        <v>7.12</v>
+        <v>7.17</v>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="L14" t="n">
-        <v>92.7</v>
+        <v>104.3</v>
       </c>
       <c r="M14" t="n">
-        <v>2655</v>
+        <v>3130</v>
       </c>
       <c r="N14" t="n">
-        <v>204.2</v>
+        <v>208.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="D15" t="n">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="E15" t="n">
-        <v>66.40000000000001</v>
+        <v>71.5</v>
       </c>
       <c r="F15" t="n">
-        <v>2861</v>
+        <v>3360</v>
       </c>
       <c r="G15" t="n">
-        <v>6.81</v>
+        <v>7.48</v>
       </c>
       <c r="H15" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K15" t="n">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="L15" t="n">
-        <v>94.59999999999999</v>
+        <v>105.6</v>
       </c>
       <c r="M15" t="n">
-        <v>2690</v>
+        <v>3137</v>
       </c>
       <c r="N15" t="n">
-        <v>206.9</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>439</v>
+        <v>549</v>
       </c>
       <c r="D16" t="n">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="E16" t="n">
-        <v>55.8</v>
+        <v>62.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2881</v>
+        <v>3438</v>
       </c>
       <c r="G16" t="n">
-        <v>6.56</v>
+        <v>6.26</v>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J16" t="n">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K16" t="n">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="L16" t="n">
-        <v>77.3</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="M16" t="n">
-        <v>2725</v>
+        <v>3137</v>
       </c>
       <c r="N16" t="n">
-        <v>209.6</v>
+        <v>209.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D17" t="n">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="E17" t="n">
-        <v>63.6</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>2983</v>
+        <v>3307</v>
       </c>
       <c r="G17" t="n">
-        <v>6.46</v>
+        <v>7.22</v>
       </c>
       <c r="H17" t="n">
         <v>18</v>
@@ -1226,19 +1226,19 @@
         <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="L17" t="n">
-        <v>83.3</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="M17" t="n">
-        <v>2750</v>
+        <v>3144</v>
       </c>
       <c r="N17" t="n">
-        <v>211.5</v>
+        <v>209.6</v>
       </c>
     </row>
     <row r="18">
@@ -1248,457 +1248,457 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>410</v>
+        <v>463</v>
       </c>
       <c r="D18" t="n">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="E18" t="n">
-        <v>68.5</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>2896</v>
+        <v>3291</v>
       </c>
       <c r="G18" t="n">
-        <v>7.06</v>
+        <v>7.11</v>
       </c>
       <c r="H18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I18" t="n">
         <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K18" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L18" t="n">
-        <v>95.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="M18" t="n">
-        <v>2754</v>
+        <v>3145</v>
       </c>
       <c r="N18" t="n">
-        <v>211.8</v>
+        <v>209.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carolina Panthers</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="D19" t="n">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="E19" t="n">
-        <v>65.2</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>2890</v>
+        <v>3433</v>
       </c>
       <c r="G19" t="n">
-        <v>7.24</v>
+        <v>7.5</v>
       </c>
       <c r="H19" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K19" t="n">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="L19" t="n">
-        <v>87.40000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="M19" t="n">
-        <v>2761</v>
+        <v>3256</v>
       </c>
       <c r="N19" t="n">
-        <v>212.4</v>
+        <v>217.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>427</v>
+        <v>537</v>
       </c>
       <c r="D20" t="n">
-        <v>262</v>
+        <v>341</v>
       </c>
       <c r="E20" t="n">
-        <v>61.4</v>
+        <v>63.5</v>
       </c>
       <c r="F20" t="n">
-        <v>3130</v>
+        <v>3591</v>
       </c>
       <c r="G20" t="n">
-        <v>7.33</v>
+        <v>6.69</v>
       </c>
       <c r="H20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K20" t="n">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="L20" t="n">
-        <v>93.3</v>
+        <v>85.5</v>
       </c>
       <c r="M20" t="n">
-        <v>2876</v>
+        <v>3320</v>
       </c>
       <c r="N20" t="n">
-        <v>221.2</v>
+        <v>221.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="D21" t="n">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="E21" t="n">
-        <v>64.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>3083</v>
+        <v>3573</v>
       </c>
       <c r="G21" t="n">
-        <v>7.14</v>
+        <v>7.2</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="K21" t="n">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="L21" t="n">
-        <v>92.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="M21" t="n">
-        <v>2916</v>
+        <v>3331</v>
       </c>
       <c r="N21" t="n">
-        <v>224.3</v>
+        <v>222.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>399</v>
+        <v>455</v>
       </c>
       <c r="D22" t="n">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="E22" t="n">
-        <v>67.40000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="F22" t="n">
-        <v>3058</v>
+        <v>3617</v>
       </c>
       <c r="G22" t="n">
-        <v>7.66</v>
+        <v>7.95</v>
       </c>
       <c r="H22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J22" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K22" t="n">
-        <v>136</v>
+        <v>273</v>
       </c>
       <c r="L22" t="n">
-        <v>94</v>
+        <v>104.4</v>
       </c>
       <c r="M22" t="n">
-        <v>2922</v>
+        <v>3344</v>
       </c>
       <c r="N22" t="n">
-        <v>224.8</v>
+        <v>222.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D23" t="n">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E23" t="n">
-        <v>62.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>3134</v>
+        <v>3540</v>
       </c>
       <c r="G23" t="n">
-        <v>6.38</v>
+        <v>7.14</v>
       </c>
       <c r="H23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I23" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K23" t="n">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="n">
-        <v>83.3</v>
+        <v>94.5</v>
       </c>
       <c r="M23" t="n">
-        <v>2957</v>
+        <v>3362</v>
       </c>
       <c r="N23" t="n">
-        <v>227.5</v>
+        <v>224.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>401</v>
+        <v>516</v>
       </c>
       <c r="D24" t="n">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="E24" t="n">
-        <v>67.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>3196</v>
+        <v>3582</v>
       </c>
       <c r="G24" t="n">
-        <v>7.97</v>
+        <v>6.94</v>
       </c>
       <c r="H24" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I24" t="n">
         <v>6</v>
       </c>
       <c r="J24" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="K24" t="n">
-        <v>226</v>
+        <v>142</v>
       </c>
       <c r="L24" t="n">
-        <v>103.7</v>
+        <v>100.6</v>
       </c>
       <c r="M24" t="n">
-        <v>2970</v>
+        <v>3440</v>
       </c>
       <c r="N24" t="n">
-        <v>228.5</v>
+        <v>229.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>454</v>
+        <v>571</v>
       </c>
       <c r="D25" t="n">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="E25" t="n">
-        <v>65.2</v>
+        <v>62.9</v>
       </c>
       <c r="F25" t="n">
-        <v>3202</v>
+        <v>3662</v>
       </c>
       <c r="G25" t="n">
-        <v>7.05</v>
+        <v>6.41</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J25" t="n">
         <v>29</v>
       </c>
       <c r="K25" t="n">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L25" t="n">
-        <v>98.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="M25" t="n">
-        <v>3010</v>
+        <v>3455</v>
       </c>
       <c r="N25" t="n">
-        <v>231.5</v>
+        <v>230.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="D26" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E26" t="n">
-        <v>69.2</v>
+        <v>61.9</v>
       </c>
       <c r="F26" t="n">
-        <v>3135</v>
+        <v>3764</v>
       </c>
       <c r="G26" t="n">
-        <v>6.95</v>
+        <v>7.44</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="K26" t="n">
-        <v>119</v>
+        <v>277</v>
       </c>
       <c r="L26" t="n">
-        <v>101.1</v>
+        <v>93.8</v>
       </c>
       <c r="M26" t="n">
-        <v>3016</v>
+        <v>3487</v>
       </c>
       <c r="N26" t="n">
-        <v>232</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Washington Commanders</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D27" t="n">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="E27" t="n">
-        <v>62.3</v>
+        <v>67</v>
       </c>
       <c r="F27" t="n">
-        <v>3208</v>
+        <v>3823</v>
       </c>
       <c r="G27" t="n">
-        <v>6.83</v>
+        <v>8.26</v>
       </c>
       <c r="H27" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I27" t="n">
         <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="K27" t="n">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="L27" t="n">
-        <v>89.7</v>
+        <v>107.6</v>
       </c>
       <c r="M27" t="n">
-        <v>3068</v>
+        <v>3626</v>
       </c>
       <c r="N27" t="n">
-        <v>236</v>
+        <v>241.7</v>
       </c>
     </row>
     <row r="28">
@@ -1708,227 +1708,227 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>435</v>
+        <v>511</v>
       </c>
       <c r="D28" t="n">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="E28" t="n">
         <v>66.7</v>
       </c>
       <c r="F28" t="n">
-        <v>3330</v>
+        <v>3894</v>
       </c>
       <c r="G28" t="n">
-        <v>7.66</v>
+        <v>7.62</v>
       </c>
       <c r="H28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I28" t="n">
         <v>12</v>
       </c>
       <c r="J28" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K28" t="n">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="L28" t="n">
-        <v>94.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="M28" t="n">
-        <v>3091</v>
+        <v>3630</v>
       </c>
       <c r="N28" t="n">
-        <v>237.8</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Baltimore Ravens</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>490</v>
+        <v>553</v>
       </c>
       <c r="D29" t="n">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="E29" t="n">
-        <v>63.7</v>
+        <v>63.1</v>
       </c>
       <c r="F29" t="n">
-        <v>3396</v>
+        <v>3813</v>
       </c>
       <c r="G29" t="n">
-        <v>6.93</v>
+        <v>6.9</v>
       </c>
       <c r="H29" t="n">
         <v>21</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J29" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K29" t="n">
-        <v>224</v>
+        <v>173</v>
       </c>
       <c r="L29" t="n">
-        <v>89</v>
+        <v>88.5</v>
       </c>
       <c r="M29" t="n">
-        <v>3172</v>
+        <v>3640</v>
       </c>
       <c r="N29" t="n">
-        <v>244</v>
+        <v>242.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>15</v>
+      </c>
+      <c r="C30" t="n">
+        <v>475</v>
+      </c>
+      <c r="D30" t="n">
+        <v>316</v>
+      </c>
+      <c r="E30" t="n">
+        <v>66.5</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3852</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="H30" t="n">
+        <v>31</v>
+      </c>
+      <c r="I30" t="n">
         <v>13</v>
       </c>
-      <c r="C30" t="n">
-        <v>488</v>
-      </c>
-      <c r="D30" t="n">
-        <v>310</v>
-      </c>
-      <c r="E30" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3428</v>
-      </c>
-      <c r="G30" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="H30" t="n">
-        <v>18</v>
-      </c>
-      <c r="I30" t="n">
-        <v>12</v>
-      </c>
       <c r="J30" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K30" t="n">
-        <v>226</v>
+        <v>150</v>
       </c>
       <c r="L30" t="n">
-        <v>86.3</v>
+        <v>101.7</v>
       </c>
       <c r="M30" t="n">
-        <v>3202</v>
+        <v>3702</v>
       </c>
       <c r="N30" t="n">
-        <v>246.3</v>
+        <v>246.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Washington Commanders</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>396</v>
+        <v>572</v>
       </c>
       <c r="D31" t="n">
-        <v>268</v>
+        <v>368</v>
       </c>
       <c r="E31" t="n">
-        <v>67.7</v>
+        <v>64.3</v>
       </c>
       <c r="F31" t="n">
-        <v>3392</v>
+        <v>4013</v>
       </c>
       <c r="G31" t="n">
-        <v>8.57</v>
+        <v>7.02</v>
       </c>
       <c r="H31" t="n">
         <v>26</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J31" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="K31" t="n">
-        <v>182</v>
+        <v>273</v>
       </c>
       <c r="L31" t="n">
-        <v>109.7</v>
+        <v>91.3</v>
       </c>
       <c r="M31" t="n">
-        <v>3210</v>
+        <v>3740</v>
       </c>
       <c r="N31" t="n">
-        <v>246.9</v>
+        <v>249.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Indianapolis Colts</t>
         </is>
       </c>
       <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>558</v>
+      </c>
+      <c r="D32" t="n">
+        <v>357</v>
+      </c>
+      <c r="E32" t="n">
+        <v>64</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3994</v>
+      </c>
+      <c r="G32" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="H32" t="n">
+        <v>23</v>
+      </c>
+      <c r="I32" t="n">
         <v>13</v>
       </c>
-      <c r="C32" t="n">
-        <v>433</v>
-      </c>
-      <c r="D32" t="n">
-        <v>288</v>
-      </c>
-      <c r="E32" t="n">
-        <v>66.5</v>
-      </c>
-      <c r="F32" t="n">
-        <v>3442</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.95</v>
-      </c>
-      <c r="H32" t="n">
-        <v>29</v>
-      </c>
-      <c r="I32" t="n">
-        <v>10</v>
-      </c>
       <c r="J32" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="K32" t="n">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="L32" t="n">
-        <v>103.3</v>
+        <v>89.3</v>
       </c>
       <c r="M32" t="n">
-        <v>3314</v>
+        <v>3761</v>
       </c>
       <c r="N32" t="n">
-        <v>254.9</v>
+        <v>250.7</v>
       </c>
     </row>
     <row r="33">
@@ -1938,28 +1938,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="D33" t="n">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="E33" t="n">
-        <v>68.5</v>
+        <v>68.8</v>
       </c>
       <c r="F33" t="n">
-        <v>3543</v>
+        <v>4093</v>
       </c>
       <c r="G33" t="n">
-        <v>7.93</v>
+        <v>8.19</v>
       </c>
       <c r="H33" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>29</v>
@@ -1968,13 +1968,13 @@
         <v>226</v>
       </c>
       <c r="L33" t="n">
-        <v>109.1</v>
+        <v>110.5</v>
       </c>
       <c r="M33" t="n">
-        <v>3317</v>
+        <v>3867</v>
       </c>
       <c r="N33" t="n">
-        <v>255.2</v>
+        <v>257.8</v>
       </c>
     </row>
   </sheetData>
